--- a/query/tpch/q7/tpch.xlsx
+++ b/query/tpch/q7/tpch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbn/Desktop/SQLRewriter/query/tpch/q7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0887D192-FDE0-7B45-9FFF-AA14D7915FEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3577113E-28AF-3643-A98E-B8E6E17F4833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="900" windowWidth="35840" windowHeight="18880" xr2:uid="{603B9A9E-4DFE-214F-AF14-55792C66D0DB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="67">
   <si>
     <t>nation</t>
   </si>
@@ -234,22 +234,17 @@
   </si>
   <si>
     <t>n2</t>
+  </si>
+  <si>
+    <t>lineitemwithyear</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -290,10 +285,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -608,10 +602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5452DB01-2FD7-144C-9855-3D153D02606A}">
-  <dimension ref="A1:R21"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -812,10 +806,10 @@
       <c r="I7" t="s">
         <v>49</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="1" t="s">
         <v>50</v>
       </c>
     </row>
@@ -914,13 +908,13 @@
       <c r="I10" t="s">
         <v>49</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="L10" s="1" t="s">
         <v>53</v>
       </c>
     </row>
@@ -978,7 +972,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>64</v>
       </c>
@@ -995,7 +989,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>65</v>
       </c>
@@ -1012,11 +1006,67 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" t="s">
+        <v>60</v>
+      </c>
+      <c r="H21" t="s">
+        <v>60</v>
+      </c>
+      <c r="I21" t="s">
+        <v>60</v>
+      </c>
+      <c r="J21" t="s">
+        <v>60</v>
+      </c>
+      <c r="K21" t="s">
+        <v>60</v>
+      </c>
+      <c r="L21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M21" t="s">
+        <v>60</v>
+      </c>
+      <c r="N21" t="s">
+        <v>60</v>
+      </c>
+      <c r="O21" t="s">
+        <v>60</v>
+      </c>
+      <c r="P21" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>60</v>
+      </c>
+      <c r="R21" t="s">
+        <v>60</v>
+      </c>
+      <c r="S21" t="s">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>